--- a/data/Victor ValdezT4-2024.xlsx
+++ b/data/Victor ValdezT4-2024.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" tabRatio="600" firstSheet="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="By Song" sheetId="1" state="visible" r:id="rId1"/>
@@ -489,7 +489,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="C3:I14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10:F12"/>
@@ -502,6 +502,8 @@
     <col width="25" customWidth="1" min="5" max="6"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -509,6 +511,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -516,6 +519,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -578,8 +582,6 @@
     </row>
     <row r="11">
       <c r="F11" s="8" t="n"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="D12" s="4" t="inlineStr">
@@ -634,7 +636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="C3:E19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
@@ -646,6 +648,8 @@
     <col width="25" customWidth="1" min="4" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -653,6 +657,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -660,6 +665,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
@@ -757,7 +763,6 @@
       </c>
     </row>
     <row r="15">
-      <c r="C15" t="inlineStr"/>
       <c r="D15" s="2" t="n">
         <v>46</v>
       </c>
@@ -819,7 +824,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="C3:E12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10:E12"/>
@@ -831,6 +836,8 @@
     <col width="25" customWidth="1" min="4" max="5"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="C3" t="inlineStr">
         <is>
@@ -838,6 +845,7 @@
         </is>
       </c>
     </row>
+    <row r="4"/>
     <row r="5">
       <c r="C5" t="inlineStr">
         <is>
@@ -845,6 +853,7 @@
         </is>
       </c>
     </row>
+    <row r="6"/>
     <row r="7">
       <c r="C7" t="inlineStr">
         <is>
